--- a/Exploration/visual_data/true_rows.xlsx
+++ b/Exploration/visual_data/true_rows.xlsx
@@ -430,7 +430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -450,13 +450,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -527,12 +527,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -544,12 +544,12 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -569,13 +569,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -623,21 +623,21 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -759,18 +759,18 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -855,13 +855,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -991,10 +991,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1011,13 +1011,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1246,13 +1246,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1292,15 +1292,15 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1411,15 +1411,15 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1445,12 +1445,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1462,12 +1462,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -1589,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1734,12 +1734,12 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1751,15 +1751,15 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1793,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1878,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1989,18 +1989,18 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -2088,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2102,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2122,18 +2122,18 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -2227,18 +2227,18 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2306,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2374,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2414,12 +2414,12 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2640,7 +2640,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2762,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2788,15 +2788,15 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2822,12 +2822,12 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -2938,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -3051,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3105,24 +3105,24 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -3306,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -3349,18 +3349,18 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -3456,13 +3456,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -3527,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -3544,10 +3544,10 @@
         <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -3561,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -3587,18 +3587,18 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -3643,13 +3643,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -3694,13 +3694,13 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
@@ -3734,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -3958,12 +3958,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -3975,12 +3975,12 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -4000,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -4054,21 +4054,21 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -4088,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4190,18 +4190,18 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -4272,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4286,13 +4286,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4377,13 +4377,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -4422,10 +4422,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -4473,13 +4473,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -4493,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4510,13 +4510,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -4524,13 +4524,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4564,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -4578,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -4592,10 +4592,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -4609,13 +4609,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4626,10 +4626,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -4649,13 +4649,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4677,13 +4677,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -4723,15 +4723,15 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -4745,10 +4745,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -4762,13 +4762,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -4816,10 +4816,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -4842,15 +4842,15 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -4876,12 +4876,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -4893,12 +4893,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -4952,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -4966,13 +4966,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -5020,13 +5020,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -5119,13 +5119,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -5165,12 +5165,12 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -5182,15 +5182,15 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -5224,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -5281,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -5309,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -5442,10 +5442,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -5519,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -5533,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -5553,18 +5553,18 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -5658,18 +5658,18 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -5680,10 +5680,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -5697,13 +5697,13 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -5720,13 +5720,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -5754,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5805,21 +5805,21 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -5845,12 +5845,12 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -5867,10 +5867,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -5887,10 +5887,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -5924,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5958,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -5986,10 +5986,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -6003,13 +6003,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -6071,7 +6071,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -6088,10 +6088,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -6128,10 +6128,10 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -6165,10 +6165,10 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -6193,10 +6193,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -6219,15 +6219,15 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -6253,12 +6253,12 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -6275,10 +6275,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -6343,13 +6343,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -6369,18 +6369,18 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -6414,10 +6414,10 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -6445,13 +6445,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -6482,13 +6482,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -6496,13 +6496,13 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -6516,10 +6516,10 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -6536,24 +6536,24 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -6564,10 +6564,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -6615,10 +6615,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -6635,10 +6635,10 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -6669,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -6737,10 +6737,10 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -6751,13 +6751,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -6780,18 +6780,18 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -6887,13 +6887,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -6904,10 +6904,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -6947,10 +6947,10 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -6958,13 +6958,13 @@
         <v>0</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -6975,10 +6975,10 @@
         <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -6992,13 +6992,13 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -7018,18 +7018,18 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -7057,10 +7057,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -7094,13 +7094,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -7125,13 +7125,13 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -7145,13 +7145,13 @@
         <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -7176,10 +7176,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7312,13 +7312,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7346,10 +7346,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -7389,12 +7389,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -7406,12 +7406,12 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7431,13 +7431,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7485,21 +7485,21 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -7519,10 +7519,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7530,10 +7530,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -7547,10 +7547,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -7621,18 +7621,18 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -7649,10 +7649,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -7703,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -7717,13 +7717,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7808,13 +7808,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -7853,10 +7853,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -7873,13 +7873,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -7904,13 +7904,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -7924,13 +7924,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -7941,13 +7941,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -7955,13 +7955,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -7975,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7995,13 +7995,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -8009,13 +8009,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -8023,10 +8023,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -8040,13 +8040,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -8080,13 +8080,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -8108,13 +8108,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -8154,15 +8154,15 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -8176,10 +8176,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -8193,13 +8193,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -8247,10 +8247,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -8273,15 +8273,15 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -8307,12 +8307,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -8324,12 +8324,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -8383,13 +8383,13 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -8397,13 +8397,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -8451,13 +8451,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -8499,10 +8499,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -8550,13 +8550,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -8584,7 +8584,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -8596,12 +8596,12 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -8613,15 +8613,15 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -8655,10 +8655,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -8712,10 +8712,10 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -8740,10 +8740,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -8822,10 +8822,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -8851,18 +8851,18 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -8873,10 +8873,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -8950,10 +8950,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -8964,13 +8964,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -8984,18 +8984,18 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -9043,10 +9043,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -9089,18 +9089,18 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -9111,10 +9111,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -9128,13 +9128,13 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -9151,13 +9151,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -9168,10 +9168,10 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -9185,10 +9185,10 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -9236,21 +9236,21 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -9276,12 +9276,12 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -9298,10 +9298,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -9389,10 +9389,10 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -9417,10 +9417,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -9434,13 +9434,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -9502,7 +9502,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -9519,10 +9519,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -9559,10 +9559,10 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -9596,10 +9596,10 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -9624,10 +9624,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -9650,15 +9650,15 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -9684,12 +9684,12 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -9706,10 +9706,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -9743,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -9774,13 +9774,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -9800,18 +9800,18 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -9845,10 +9845,10 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -9876,13 +9876,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -9913,13 +9913,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -9927,13 +9927,13 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -9947,10 +9947,10 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -9967,24 +9967,24 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9995,10 +9995,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -10046,10 +10046,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -10066,10 +10066,10 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -10092,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -10100,13 +10100,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -10168,10 +10168,10 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -10182,13 +10182,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -10211,18 +10211,18 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -10318,13 +10318,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -10335,10 +10335,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -10378,10 +10378,10 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -10389,13 +10389,13 @@
         <v>0</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -10406,10 +10406,10 @@
         <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -10423,13 +10423,13 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -10449,18 +10449,18 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -10488,10 +10488,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -10505,13 +10505,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -10525,13 +10525,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -10556,13 +10556,13 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -10576,13 +10576,13 @@
         <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
@@ -10596,10 +10596,10 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -10607,10 +10607,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
